--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsk/Google_Drive/Scripts/growplot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF90818D-47EE-184B-8EAD-92FAD74F8198}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E74454-A4FD-234B-8AD5-7B0171CCE7B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="15320" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="800" windowWidth="15320" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Layout" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -108,6 +105,30 @@
   </si>
   <si>
     <t>F9</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>sample2</t>
+  </si>
+  <si>
+    <t>C3,D3,E3</t>
+  </si>
+  <si>
+    <t>C4,D4,E4,C5,D5,E5,C6,D6,E6</t>
+  </si>
+  <si>
+    <t>C7,D7,E7,C8,D8,E8,C9,D9,E9</t>
   </si>
 </sst>
 </file>
@@ -204,5720 +225,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Time</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>C4</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>C5</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>C6</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>C7</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>C8</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>C9</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>D4</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>D5</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>D6</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>D7</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>D8</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>D9</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>E4</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>E5</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>E6</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>E7</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>E8</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>E9</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>F4</v>
-          </cell>
-          <cell r="U1" t="str">
-            <v>F5</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>F6</v>
-          </cell>
-          <cell r="W1" t="str">
-            <v>F7</v>
-          </cell>
-          <cell r="X1" t="str">
-            <v>F8</v>
-          </cell>
-          <cell r="Y1" t="str">
-            <v>F9</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>9.8379629629629633E-3</v>
-          </cell>
-          <cell r="B2">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="E2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F2">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="G2">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H2">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I2">
-            <v>0</v>
-          </cell>
-          <cell r="J2">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="K2">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="L2">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M2">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="N2">
-            <v>0</v>
-          </cell>
-          <cell r="O2">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="P2">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="Q2">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="R2">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S2">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T2">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="U2">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="V2">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="W2">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="X2">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="Y2">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2.0254629629629629E-2</v>
-          </cell>
-          <cell r="B3">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="C3">
-            <v>1E-3</v>
-          </cell>
-          <cell r="D3">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="E3">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="F3">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="G3">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H3">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I3">
-            <v>0</v>
-          </cell>
-          <cell r="J3">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="K3">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="L3">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M3">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N3">
-            <v>0</v>
-          </cell>
-          <cell r="O3">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="P3">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="Q3">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="R3">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S3">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T3">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="U3">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="V3">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="W3">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="X3">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="Y3">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3.0671296296296294E-2</v>
-          </cell>
-          <cell r="B4">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="E4">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="F4">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="G4">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H4">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="K4">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="L4">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M4">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N4">
-            <v>0</v>
-          </cell>
-          <cell r="O4">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="P4">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="Q4">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="R4">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S4">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T4">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="U4">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="V4">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="W4">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="X4">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="Y4">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4.1087962962962958E-2</v>
-          </cell>
-          <cell r="B5">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="E5">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F5">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="G5">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H5">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I5">
-            <v>1E-3</v>
-          </cell>
-          <cell r="J5">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="K5">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="L5">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M5">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N5">
-            <v>0</v>
-          </cell>
-          <cell r="O5">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="P5">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="Q5">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="R5">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S5">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T5">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="U5">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="V5">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="W5">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="X5">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="Y5">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5.1504629629629629E-2</v>
-          </cell>
-          <cell r="B6">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="C6">
-            <v>1E-3</v>
-          </cell>
-          <cell r="D6">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="E6">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="F6">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="G6">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H6">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-          <cell r="J6">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="K6">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="L6">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M6">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-          <cell r="O6">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="P6">
-            <v>0</v>
-          </cell>
-          <cell r="Q6">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="R6">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S6">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T6">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="U6">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="V6">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="W6">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="X6">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="Y6">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6.1921296296296301E-2</v>
-          </cell>
-          <cell r="B7">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="C7">
-            <v>1E-3</v>
-          </cell>
-          <cell r="D7">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="E7">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F7">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G7">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H7">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="I7">
-            <v>1E-3</v>
-          </cell>
-          <cell r="J7">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="K7">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="L7">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M7">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N7">
-            <v>0</v>
-          </cell>
-          <cell r="O7">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="P7">
-            <v>0</v>
-          </cell>
-          <cell r="Q7">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="R7">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S7">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T7">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="U7">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="V7">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="W7">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="X7">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="Y7">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7.2337962962962965E-2</v>
-          </cell>
-          <cell r="B8">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="C8">
-            <v>1E-3</v>
-          </cell>
-          <cell r="D8">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="E8">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="F8">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="G8">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H8">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="I8">
-            <v>1E-3</v>
-          </cell>
-          <cell r="J8">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="K8">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="L8">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M8">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N8">
-            <v>0</v>
-          </cell>
-          <cell r="O8">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="P8">
-            <v>1E-3</v>
-          </cell>
-          <cell r="Q8">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="R8">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S8">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T8">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="U8">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="V8">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="W8">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="X8">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="Y8">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8.2754629629629636E-2</v>
-          </cell>
-          <cell r="B9">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="C9">
-            <v>1E-3</v>
-          </cell>
-          <cell r="D9">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="E9">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F9">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="G9">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H9">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="I9">
-            <v>1E-3</v>
-          </cell>
-          <cell r="J9">
-            <v>0</v>
-          </cell>
-          <cell r="K9">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="L9">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M9">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N9">
-            <v>1E-3</v>
-          </cell>
-          <cell r="O9">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="P9">
-            <v>1E-3</v>
-          </cell>
-          <cell r="Q9">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="R9">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S9">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T9">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="U9">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="V9">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="W9">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="X9">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="Y9">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9.3171296296296294E-2</v>
-          </cell>
-          <cell r="B10">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="C10">
-            <v>2E-3</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F10">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="G10">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H10">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="I10">
-            <v>2E-3</v>
-          </cell>
-          <cell r="J10">
-            <v>1E-3</v>
-          </cell>
-          <cell r="K10">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="L10">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M10">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N10">
-            <v>1E-3</v>
-          </cell>
-          <cell r="O10">
-            <v>0.01</v>
-          </cell>
-          <cell r="P10">
-            <v>2E-3</v>
-          </cell>
-          <cell r="Q10">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="R10">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S10">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T10">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="U10">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="V10">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="W10">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="X10">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="Y10">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>0.10358796296296297</v>
-          </cell>
-          <cell r="B11">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="C11">
-            <v>2E-3</v>
-          </cell>
-          <cell r="D11">
-            <v>1E-3</v>
-          </cell>
-          <cell r="E11">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="F11">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G11">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H11">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="I11">
-            <v>2E-3</v>
-          </cell>
-          <cell r="J11">
-            <v>2E-3</v>
-          </cell>
-          <cell r="K11">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="L11">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M11">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N11">
-            <v>1E-3</v>
-          </cell>
-          <cell r="O11">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="P11">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="Q11">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="R11">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S11">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T11">
-            <v>0</v>
-          </cell>
-          <cell r="U11">
-            <v>0</v>
-          </cell>
-          <cell r="V11">
-            <v>0</v>
-          </cell>
-          <cell r="W11">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="X11">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="Y11">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>0.11400462962962964</v>
-          </cell>
-          <cell r="B12">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="C12">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="D12">
-            <v>2E-3</v>
-          </cell>
-          <cell r="E12">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="F12">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G12">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-          <cell r="I12">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="J12">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="K12">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="L12">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M12">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N12">
-            <v>2E-3</v>
-          </cell>
-          <cell r="O12">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="P12">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="Q12">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="R12">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="S12">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T12">
-            <v>1E-3</v>
-          </cell>
-          <cell r="U12">
-            <v>1E-3</v>
-          </cell>
-          <cell r="V12">
-            <v>1E-3</v>
-          </cell>
-          <cell r="W12">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="X12">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="Y12">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>0.12442129629629629</v>
-          </cell>
-          <cell r="B13">
-            <v>0</v>
-          </cell>
-          <cell r="C13">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="D13">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="E13">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="F13">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G13">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H13">
-            <v>2E-3</v>
-          </cell>
-          <cell r="I13">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="J13">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="K13">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="L13">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M13">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N13">
-            <v>2E-3</v>
-          </cell>
-          <cell r="O13">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="P13">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="Q13">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="R13">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="S13">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T13">
-            <v>2E-3</v>
-          </cell>
-          <cell r="U13">
-            <v>2E-3</v>
-          </cell>
-          <cell r="V13">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="W13">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="X13">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="Y13">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>0.13483796296296297</v>
-          </cell>
-          <cell r="B14">
-            <v>1E-3</v>
-          </cell>
-          <cell r="C14">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="D14">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="E14">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="F14">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G14">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H14">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I14">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="J14">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="K14">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="L14">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="M14">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N14">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="O14">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="P14">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="Q14">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="R14">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="S14">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T14">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="U14">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="V14">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="W14">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="X14">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="Y14">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>0.14525462962962962</v>
-          </cell>
-          <cell r="B15">
-            <v>2E-3</v>
-          </cell>
-          <cell r="C15">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="D15">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="E15">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="F15">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G15">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H15">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="I15">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="J15">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="K15">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="L15">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="M15">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N15">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="O15">
-            <v>3.1E-2</v>
-          </cell>
-          <cell r="P15">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="Q15">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="R15">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="S15">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T15">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="U15">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="V15">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="W15">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="X15">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="Y15">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0.15567129629629631</v>
-          </cell>
-          <cell r="B16">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="C16">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="D16">
-            <v>0.01</v>
-          </cell>
-          <cell r="E16">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="F16">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G16">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H16">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="I16">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="J16">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="K16">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="L16">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="M16">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N16">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="O16">
-            <v>4.1000000000000002E-2</v>
-          </cell>
-          <cell r="P16">
-            <v>1.4E-2</v>
-          </cell>
-          <cell r="Q16">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="R16">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="S16">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T16">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="U16">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="V16">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="W16">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="X16">
-            <v>0.01</v>
-          </cell>
-          <cell r="Y16">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0.16608796296296297</v>
-          </cell>
-          <cell r="B17">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="C17">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="D17">
-            <v>1.4E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G17">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H17">
-            <v>0.01</v>
-          </cell>
-          <cell r="I17">
-            <v>0.01</v>
-          </cell>
-          <cell r="J17">
-            <v>0.02</v>
-          </cell>
-          <cell r="K17">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="L17">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="M17">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N17">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="O17">
-            <v>5.1999999999999998E-2</v>
-          </cell>
-          <cell r="P17">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="Q17">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="R17">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="S17">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T17">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="U17">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="V17">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="W17">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="X17">
-            <v>0.01</v>
-          </cell>
-          <cell r="Y17">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>0.17650462962962962</v>
-          </cell>
-          <cell r="B18">
-            <v>0.01</v>
-          </cell>
-          <cell r="C18">
-            <v>0.01</v>
-          </cell>
-          <cell r="D18">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="F18">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="G18">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H18">
-            <v>1.4E-2</v>
-          </cell>
-          <cell r="I18">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="J18">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="K18">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="L18">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="M18">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N18">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="O18">
-            <v>6.8000000000000005E-2</v>
-          </cell>
-          <cell r="P18">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="Q18">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="R18">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="S18">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T18">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="U18">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="V18">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="W18">
-            <v>0</v>
-          </cell>
-          <cell r="X18">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="Y18">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>0.18692129629629628</v>
-          </cell>
-          <cell r="B19">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="C19">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="D19">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="F19">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="G19">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H19">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="I19">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="J19">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="K19">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="L19">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="M19">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N19">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="O19">
-            <v>8.5999999999999993E-2</v>
-          </cell>
-          <cell r="P19">
-            <v>3.2000000000000001E-2</v>
-          </cell>
-          <cell r="Q19">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="R19">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="S19">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T19">
-            <v>2.1999999999999999E-2</v>
-          </cell>
-          <cell r="U19">
-            <v>0.02</v>
-          </cell>
-          <cell r="V19">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="W19">
-            <v>1E-3</v>
-          </cell>
-          <cell r="X19">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="Y19">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>0.19733796296296294</v>
-          </cell>
-          <cell r="B20">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="C20">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="D20">
-            <v>3.1E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="F20">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="G20">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H20">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="I20">
-            <v>2.1999999999999999E-2</v>
-          </cell>
-          <cell r="J20">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-          <cell r="K20">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="L20">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="M20">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N20">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="O20">
-            <v>0.104</v>
-          </cell>
-          <cell r="P20">
-            <v>4.2000000000000003E-2</v>
-          </cell>
-          <cell r="Q20">
-            <v>0</v>
-          </cell>
-          <cell r="R20">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="S20">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="T20">
-            <v>0.03</v>
-          </cell>
-          <cell r="U20">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="V20">
-            <v>3.5999999999999997E-2</v>
-          </cell>
-          <cell r="W20">
-            <v>1E-3</v>
-          </cell>
-          <cell r="X20">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="Y20">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>0.20775462962962962</v>
-          </cell>
-          <cell r="B21">
-            <v>2.4E-2</v>
-          </cell>
-          <cell r="C21">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="D21">
-            <v>0.04</v>
-          </cell>
-          <cell r="E21">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="F21">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G21">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H21">
-            <v>3.3000000000000002E-2</v>
-          </cell>
-          <cell r="I21">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="J21">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-          <cell r="K21">
-            <v>0</v>
-          </cell>
-          <cell r="L21">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="M21">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N21">
-            <v>2.1999999999999999E-2</v>
-          </cell>
-          <cell r="O21">
-            <v>0.129</v>
-          </cell>
-          <cell r="P21">
-            <v>5.5E-2</v>
-          </cell>
-          <cell r="Q21">
-            <v>0</v>
-          </cell>
-          <cell r="R21">
-            <v>0</v>
-          </cell>
-          <cell r="S21">
-            <v>0</v>
-          </cell>
-          <cell r="T21">
-            <v>0.04</v>
-          </cell>
-          <cell r="U21">
-            <v>3.5999999999999997E-2</v>
-          </cell>
-          <cell r="V21">
-            <v>4.7E-2</v>
-          </cell>
-          <cell r="W21">
-            <v>2E-3</v>
-          </cell>
-          <cell r="X21">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="Y21">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>0.21817129629629628</v>
-          </cell>
-          <cell r="B22">
-            <v>3.2000000000000001E-2</v>
-          </cell>
-          <cell r="C22">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="D22">
-            <v>5.2999999999999999E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="F22">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G22">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H22">
-            <v>4.2999999999999997E-2</v>
-          </cell>
-          <cell r="I22">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="J22">
-            <v>7.2999999999999995E-2</v>
-          </cell>
-          <cell r="K22">
-            <v>1E-3</v>
-          </cell>
-          <cell r="L22">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="M22">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N22">
-            <v>2.9000000000000001E-2</v>
-          </cell>
-          <cell r="O22">
-            <v>0.16600000000000001</v>
-          </cell>
-          <cell r="P22">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="Q22">
-            <v>1E-3</v>
-          </cell>
-          <cell r="R22">
-            <v>0</v>
-          </cell>
-          <cell r="S22">
-            <v>0</v>
-          </cell>
-          <cell r="T22">
-            <v>5.2999999999999999E-2</v>
-          </cell>
-          <cell r="U22">
-            <v>4.7E-2</v>
-          </cell>
-          <cell r="V22">
-            <v>6.2E-2</v>
-          </cell>
-          <cell r="W22">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="X22">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="Y22">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>0.22858796296296294</v>
-          </cell>
-          <cell r="B23">
-            <v>4.2000000000000003E-2</v>
-          </cell>
-          <cell r="C23">
-            <v>3.5999999999999997E-2</v>
-          </cell>
-          <cell r="D23">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="F23">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="G23">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H23">
-            <v>5.8000000000000003E-2</v>
-          </cell>
-          <cell r="I23">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-          <cell r="J23">
-            <v>8.7999999999999995E-2</v>
-          </cell>
-          <cell r="K23">
-            <v>2E-3</v>
-          </cell>
-          <cell r="L23">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="M23">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="N23">
-            <v>4.2999999999999997E-2</v>
-          </cell>
-          <cell r="O23">
-            <v>0.217</v>
-          </cell>
-          <cell r="P23">
-            <v>8.3000000000000004E-2</v>
-          </cell>
-          <cell r="Q23">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="R23">
-            <v>1E-3</v>
-          </cell>
-          <cell r="S23">
-            <v>0</v>
-          </cell>
-          <cell r="T23">
-            <v>6.9000000000000006E-2</v>
-          </cell>
-          <cell r="U23">
-            <v>6.2E-2</v>
-          </cell>
-          <cell r="V23">
-            <v>7.5999999999999998E-2</v>
-          </cell>
-          <cell r="W23">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="X23">
-            <v>1.4E-2</v>
-          </cell>
-          <cell r="Y23">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>0.23900462962962962</v>
-          </cell>
-          <cell r="B24">
-            <v>5.5E-2</v>
-          </cell>
-          <cell r="C24">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-          <cell r="D24">
-            <v>8.1000000000000003E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="F24">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="G24">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H24">
-            <v>7.1999999999999995E-2</v>
-          </cell>
-          <cell r="I24">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-          <cell r="J24">
-            <v>0.108</v>
-          </cell>
-          <cell r="K24">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="L24">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="M24">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="N24">
-            <v>5.1999999999999998E-2</v>
-          </cell>
-          <cell r="O24">
-            <v>0.26200000000000001</v>
-          </cell>
-          <cell r="P24">
-            <v>0.10199999999999999</v>
-          </cell>
-          <cell r="Q24">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="R24">
-            <v>2E-3</v>
-          </cell>
-          <cell r="S24">
-            <v>0</v>
-          </cell>
-          <cell r="T24">
-            <v>8.4000000000000005E-2</v>
-          </cell>
-          <cell r="U24">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-          <cell r="V24">
-            <v>9.1999999999999998E-2</v>
-          </cell>
-          <cell r="W24">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="X24">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="Y24">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>0.24942129629629628</v>
-          </cell>
-          <cell r="B25">
-            <v>6.9000000000000006E-2</v>
-          </cell>
-          <cell r="C25">
-            <v>5.7000000000000002E-2</v>
-          </cell>
-          <cell r="D25">
-            <v>9.8000000000000004E-2</v>
-          </cell>
-          <cell r="E25">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="F25">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="G25">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H25">
-            <v>8.6999999999999994E-2</v>
-          </cell>
-          <cell r="I25">
-            <v>7.2999999999999995E-2</v>
-          </cell>
-          <cell r="J25">
-            <v>0.13700000000000001</v>
-          </cell>
-          <cell r="K25">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="L25">
-            <v>0</v>
-          </cell>
-          <cell r="M25">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="N25">
-            <v>6.6000000000000003E-2</v>
-          </cell>
-          <cell r="O25">
-            <v>0.32400000000000001</v>
-          </cell>
-          <cell r="P25">
-            <v>0.128</v>
-          </cell>
-          <cell r="Q25">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="R25">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="S25">
-            <v>0</v>
-          </cell>
-          <cell r="T25">
-            <v>0.105</v>
-          </cell>
-          <cell r="U25">
-            <v>9.0999999999999998E-2</v>
-          </cell>
-          <cell r="V25">
-            <v>0.114</v>
-          </cell>
-          <cell r="W25">
-            <v>0.01</v>
-          </cell>
-          <cell r="X25">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="Y25">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>0.25983796296296297</v>
-          </cell>
-          <cell r="B26">
-            <v>8.3000000000000004E-2</v>
-          </cell>
-          <cell r="C26">
-            <v>7.1999999999999995E-2</v>
-          </cell>
-          <cell r="D26">
-            <v>0.125</v>
-          </cell>
-          <cell r="E26">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="F26">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="G26">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H26">
-            <v>0.106</v>
-          </cell>
-          <cell r="I26">
-            <v>8.6999999999999994E-2</v>
-          </cell>
-          <cell r="J26">
-            <v>0.17899999999999999</v>
-          </cell>
-          <cell r="K26">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="L26">
-            <v>0</v>
-          </cell>
-          <cell r="M26">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="N26">
-            <v>8.4000000000000005E-2</v>
-          </cell>
-          <cell r="O26">
-            <v>0.4</v>
-          </cell>
-          <cell r="P26">
-            <v>0.16600000000000001</v>
-          </cell>
-          <cell r="Q26">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="R26">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="S26">
-            <v>1E-3</v>
-          </cell>
-          <cell r="T26">
-            <v>0.13200000000000001</v>
-          </cell>
-          <cell r="U26">
-            <v>0.112</v>
-          </cell>
-          <cell r="V26">
-            <v>0.14699999999999999</v>
-          </cell>
-          <cell r="W26">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="X26">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="Y26">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>0.27025462962962959</v>
-          </cell>
-          <cell r="B27">
-            <v>0.10100000000000001</v>
-          </cell>
-          <cell r="C27">
-            <v>8.5999999999999993E-2</v>
-          </cell>
-          <cell r="D27">
-            <v>0.16400000000000001</v>
-          </cell>
-          <cell r="E27">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="F27">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="G27">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="H27">
-            <v>0.13500000000000001</v>
-          </cell>
-          <cell r="I27">
-            <v>0.107</v>
-          </cell>
-          <cell r="J27">
-            <v>0.23400000000000001</v>
-          </cell>
-          <cell r="K27">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="L27">
-            <v>1E-3</v>
-          </cell>
-          <cell r="M27">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="N27">
-            <v>0.10299999999999999</v>
-          </cell>
-          <cell r="O27">
-            <v>0.46100000000000002</v>
-          </cell>
-          <cell r="P27">
-            <v>0.217</v>
-          </cell>
-          <cell r="Q27">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="R27">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="S27">
-            <v>1E-3</v>
-          </cell>
-          <cell r="T27">
-            <v>0.17199999999999999</v>
-          </cell>
-          <cell r="U27">
-            <v>0.14399999999999999</v>
-          </cell>
-          <cell r="V27">
-            <v>0.192</v>
-          </cell>
-          <cell r="W27">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="X27">
-            <v>0.02</v>
-          </cell>
-          <cell r="Y27">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>0.28067129629629628</v>
-          </cell>
-          <cell r="B28">
-            <v>0.13200000000000001</v>
-          </cell>
-          <cell r="C28">
-            <v>0.104</v>
-          </cell>
-          <cell r="D28">
-            <v>0.216</v>
-          </cell>
-          <cell r="E28">
-            <v>0.02</v>
-          </cell>
-          <cell r="F28">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="G28">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="H28">
-            <v>0.17699999999999999</v>
-          </cell>
-          <cell r="I28">
-            <v>0.13500000000000001</v>
-          </cell>
-          <cell r="J28">
-            <v>0.30399999999999999</v>
-          </cell>
-          <cell r="K28">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="L28">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="M28">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="N28">
-            <v>0.129</v>
-          </cell>
-          <cell r="O28">
-            <v>0.51600000000000001</v>
-          </cell>
-          <cell r="P28">
-            <v>0.28100000000000003</v>
-          </cell>
-          <cell r="Q28">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="R28">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="S28">
-            <v>1E-3</v>
-          </cell>
-          <cell r="T28">
-            <v>0.22500000000000001</v>
-          </cell>
-          <cell r="U28">
-            <v>0.189</v>
-          </cell>
-          <cell r="V28">
-            <v>0.252</v>
-          </cell>
-          <cell r="W28">
-            <v>2.1999999999999999E-2</v>
-          </cell>
-          <cell r="X28">
-            <v>2.1999999999999999E-2</v>
-          </cell>
-          <cell r="Y28">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>0.29108796296296297</v>
-          </cell>
-          <cell r="B29">
-            <v>0.16800000000000001</v>
-          </cell>
-          <cell r="C29">
-            <v>0.13200000000000001</v>
-          </cell>
-          <cell r="D29">
-            <v>0.28199999999999997</v>
-          </cell>
-          <cell r="E29">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="F29">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="G29">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="H29">
-            <v>0.23300000000000001</v>
-          </cell>
-          <cell r="I29">
-            <v>0.17499999999999999</v>
-          </cell>
-          <cell r="J29">
-            <v>0.373</v>
-          </cell>
-          <cell r="K29">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="L29">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="M29">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="N29">
-            <v>0.16800000000000001</v>
-          </cell>
-          <cell r="O29">
-            <v>0.56999999999999995</v>
-          </cell>
-          <cell r="P29">
-            <v>0.35299999999999998</v>
-          </cell>
-          <cell r="Q29">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="R29">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="S29">
-            <v>2E-3</v>
-          </cell>
-          <cell r="T29">
-            <v>0.27500000000000002</v>
-          </cell>
-          <cell r="U29">
-            <v>0.249</v>
-          </cell>
-          <cell r="V29">
-            <v>0.32400000000000001</v>
-          </cell>
-          <cell r="W29">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="X29">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="Y29">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>0.30150462962962959</v>
-          </cell>
-          <cell r="B30">
-            <v>0.222</v>
-          </cell>
-          <cell r="C30">
-            <v>0.17199999999999999</v>
-          </cell>
-          <cell r="D30">
-            <v>0.34899999999999998</v>
-          </cell>
-          <cell r="E30">
-            <v>2.1999999999999999E-2</v>
-          </cell>
-          <cell r="F30">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="G30">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="H30">
-            <v>0.30299999999999999</v>
-          </cell>
-          <cell r="I30">
-            <v>0.22900000000000001</v>
-          </cell>
-          <cell r="J30">
-            <v>0.42799999999999999</v>
-          </cell>
-          <cell r="K30">
-            <v>2.3E-2</v>
-          </cell>
-          <cell r="L30">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="M30">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="N30">
-            <v>0.223</v>
-          </cell>
-          <cell r="O30">
-            <v>0.61399999999999999</v>
-          </cell>
-          <cell r="P30">
-            <v>0.41399999999999998</v>
-          </cell>
-          <cell r="Q30">
-            <v>2.1999999999999999E-2</v>
-          </cell>
-          <cell r="R30">
-            <v>1.4E-2</v>
-          </cell>
-          <cell r="S30">
-            <v>2E-3</v>
-          </cell>
-          <cell r="T30">
-            <v>0.34499999999999997</v>
-          </cell>
-          <cell r="U30">
-            <v>0.32</v>
-          </cell>
-          <cell r="V30">
-            <v>0.39700000000000002</v>
-          </cell>
-          <cell r="W30">
-            <v>3.5999999999999997E-2</v>
-          </cell>
-          <cell r="X30">
-            <v>0.03</v>
-          </cell>
-          <cell r="Y30">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>0.31192129629629628</v>
-          </cell>
-          <cell r="B31">
-            <v>0.28899999999999998</v>
-          </cell>
-          <cell r="C31">
-            <v>0.22500000000000001</v>
-          </cell>
-          <cell r="D31">
-            <v>0.40799999999999997</v>
-          </cell>
-          <cell r="E31">
-            <v>2.3E-2</v>
-          </cell>
-          <cell r="F31">
-            <v>0.01</v>
-          </cell>
-          <cell r="G31">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="H31">
-            <v>0.376</v>
-          </cell>
-          <cell r="I31">
-            <v>0.29599999999999999</v>
-          </cell>
-          <cell r="J31">
-            <v>0.47899999999999998</v>
-          </cell>
-          <cell r="K31">
-            <v>2.5999999999999999E-2</v>
-          </cell>
-          <cell r="L31">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="M31">
-            <v>0</v>
-          </cell>
-          <cell r="N31">
-            <v>0.27100000000000002</v>
-          </cell>
-          <cell r="O31">
-            <v>0.65800000000000003</v>
-          </cell>
-          <cell r="P31">
-            <v>0.46300000000000002</v>
-          </cell>
-          <cell r="Q31">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="R31">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="S31">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="T31">
-            <v>0.41699999999999998</v>
-          </cell>
-          <cell r="U31">
-            <v>0.39200000000000002</v>
-          </cell>
-          <cell r="V31">
-            <v>0.44500000000000001</v>
-          </cell>
-          <cell r="W31">
-            <v>4.5999999999999999E-2</v>
-          </cell>
-          <cell r="X31">
-            <v>3.4000000000000002E-2</v>
-          </cell>
-          <cell r="Y31">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>0.32233796296296297</v>
-          </cell>
-          <cell r="B32">
-            <v>0.35799999999999998</v>
-          </cell>
-          <cell r="C32">
-            <v>0.29199999999999998</v>
-          </cell>
-          <cell r="D32">
-            <v>0.45800000000000002</v>
-          </cell>
-          <cell r="E32">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F32">
-            <v>0.01</v>
-          </cell>
-          <cell r="G32">
-            <v>0</v>
-          </cell>
-          <cell r="H32">
-            <v>0.42899999999999999</v>
-          </cell>
-          <cell r="I32">
-            <v>0.36599999999999999</v>
-          </cell>
-          <cell r="J32">
-            <v>0.53300000000000003</v>
-          </cell>
-          <cell r="K32">
-            <v>3.3000000000000002E-2</v>
-          </cell>
-          <cell r="L32">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="M32">
-            <v>1E-3</v>
-          </cell>
-          <cell r="N32">
-            <v>0.33700000000000002</v>
-          </cell>
-          <cell r="O32">
-            <v>0.70299999999999996</v>
-          </cell>
-          <cell r="P32">
-            <v>0.51200000000000001</v>
-          </cell>
-          <cell r="Q32">
-            <v>3.5999999999999997E-2</v>
-          </cell>
-          <cell r="R32">
-            <v>2.4E-2</v>
-          </cell>
-          <cell r="S32">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="T32">
-            <v>0.47499999999999998</v>
-          </cell>
-          <cell r="U32">
-            <v>0.438</v>
-          </cell>
-          <cell r="V32">
-            <v>0.495</v>
-          </cell>
-          <cell r="W32">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-          <cell r="X32">
-            <v>0.04</v>
-          </cell>
-          <cell r="Y32">
-            <v>3.1E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>0.33275462962962959</v>
-          </cell>
-          <cell r="B33">
-            <v>0.41499999999999998</v>
-          </cell>
-          <cell r="C33">
-            <v>0.36099999999999999</v>
-          </cell>
-          <cell r="D33">
-            <v>0.51200000000000001</v>
-          </cell>
-          <cell r="E33">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="F33">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="G33">
-            <v>0</v>
-          </cell>
-          <cell r="H33">
-            <v>0.48099999999999998</v>
-          </cell>
-          <cell r="I33">
-            <v>0.42199999999999999</v>
-          </cell>
-          <cell r="J33">
-            <v>0.58199999999999996</v>
-          </cell>
-          <cell r="K33">
-            <v>4.2999999999999997E-2</v>
-          </cell>
-          <cell r="L33">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="M33">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="N33">
-            <v>0.41299999999999998</v>
-          </cell>
-          <cell r="O33">
-            <v>0.746</v>
-          </cell>
-          <cell r="P33">
-            <v>0.56599999999999995</v>
-          </cell>
-          <cell r="Q33">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-          <cell r="R33">
-            <v>0.03</v>
-          </cell>
-          <cell r="S33">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="T33">
-            <v>0.52900000000000003</v>
-          </cell>
-          <cell r="U33">
-            <v>0.48899999999999999</v>
-          </cell>
-          <cell r="V33">
-            <v>0.55200000000000005</v>
-          </cell>
-          <cell r="W33">
-            <v>6.9000000000000006E-2</v>
-          </cell>
-          <cell r="X33">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-          <cell r="Y33">
-            <v>3.7999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>0.34317129629629628</v>
-          </cell>
-          <cell r="B34">
-            <v>0.46600000000000003</v>
-          </cell>
-          <cell r="C34">
-            <v>0.41599999999999998</v>
-          </cell>
-          <cell r="D34">
-            <v>0.56499999999999995</v>
-          </cell>
-          <cell r="E34">
-            <v>2.9000000000000001E-2</v>
-          </cell>
-          <cell r="F34">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="G34">
-            <v>1E-3</v>
-          </cell>
-          <cell r="H34">
-            <v>0.53600000000000003</v>
-          </cell>
-          <cell r="I34">
-            <v>0.47199999999999998</v>
-          </cell>
-          <cell r="J34">
-            <v>0.63100000000000001</v>
-          </cell>
-          <cell r="K34">
-            <v>5.2999999999999999E-2</v>
-          </cell>
-          <cell r="L34">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="M34">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="N34">
-            <v>0.47399999999999998</v>
-          </cell>
-          <cell r="O34">
-            <v>0.78800000000000003</v>
-          </cell>
-          <cell r="P34">
-            <v>0.61</v>
-          </cell>
-          <cell r="Q34">
-            <v>5.6000000000000001E-2</v>
-          </cell>
-          <cell r="R34">
-            <v>3.7999999999999999E-2</v>
-          </cell>
-          <cell r="S34">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="T34">
-            <v>0.58399999999999996</v>
-          </cell>
-          <cell r="U34">
-            <v>0.54400000000000004</v>
-          </cell>
-          <cell r="V34">
-            <v>0.60099999999999998</v>
-          </cell>
-          <cell r="W34">
-            <v>8.2000000000000003E-2</v>
-          </cell>
-          <cell r="X34">
-            <v>5.6000000000000001E-2</v>
-          </cell>
-          <cell r="Y34">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>0.35358796296296297</v>
-          </cell>
-          <cell r="B35">
-            <v>0.52200000000000002</v>
-          </cell>
-          <cell r="C35">
-            <v>0.46500000000000002</v>
-          </cell>
-          <cell r="D35">
-            <v>0.61599999999999999</v>
-          </cell>
-          <cell r="E35">
-            <v>3.3000000000000002E-2</v>
-          </cell>
-          <cell r="F35">
-            <v>1.4E-2</v>
-          </cell>
-          <cell r="G35">
-            <v>2E-3</v>
-          </cell>
-          <cell r="H35">
-            <v>0.58399999999999996</v>
-          </cell>
-          <cell r="I35">
-            <v>0.52200000000000002</v>
-          </cell>
-          <cell r="J35">
-            <v>0.67800000000000005</v>
-          </cell>
-          <cell r="K35">
-            <v>6.5000000000000002E-2</v>
-          </cell>
-          <cell r="L35">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="M35">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="N35">
-            <v>0.53100000000000003</v>
-          </cell>
-          <cell r="O35">
-            <v>0.82299999999999995</v>
-          </cell>
-          <cell r="P35">
-            <v>0.65700000000000003</v>
-          </cell>
-          <cell r="Q35">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-          <cell r="R35">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-          <cell r="S35">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="T35">
-            <v>0.63</v>
-          </cell>
-          <cell r="U35">
-            <v>0.59399999999999997</v>
-          </cell>
-          <cell r="V35">
-            <v>0.65300000000000002</v>
-          </cell>
-          <cell r="W35">
-            <v>9.5000000000000001E-2</v>
-          </cell>
-          <cell r="X35">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-          <cell r="Y35">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>0.36400462962962959</v>
-          </cell>
-          <cell r="B36">
-            <v>0.57299999999999995</v>
-          </cell>
-          <cell r="C36">
-            <v>0.51900000000000002</v>
-          </cell>
-          <cell r="D36">
-            <v>0.66300000000000003</v>
-          </cell>
-          <cell r="E36">
-            <v>3.6999999999999998E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="G36">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="H36">
-            <v>0.63700000000000001</v>
-          </cell>
-          <cell r="I36">
-            <v>0.57199999999999995</v>
-          </cell>
-          <cell r="J36">
-            <v>0.72299999999999998</v>
-          </cell>
-          <cell r="K36">
-            <v>7.6999999999999999E-2</v>
-          </cell>
-          <cell r="L36">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="M36">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="N36">
-            <v>0.58399999999999996</v>
-          </cell>
-          <cell r="O36">
-            <v>0.85599999999999998</v>
-          </cell>
-          <cell r="P36">
-            <v>0.70099999999999996</v>
-          </cell>
-          <cell r="Q36">
-            <v>0.08</v>
-          </cell>
-          <cell r="R36">
-            <v>0.06</v>
-          </cell>
-          <cell r="S36">
-            <v>0.01</v>
-          </cell>
-          <cell r="T36">
-            <v>0.67800000000000005</v>
-          </cell>
-          <cell r="U36">
-            <v>0.64600000000000002</v>
-          </cell>
-          <cell r="V36">
-            <v>0.69899999999999995</v>
-          </cell>
-          <cell r="W36">
-            <v>0.111</v>
-          </cell>
-          <cell r="X36">
-            <v>7.9000000000000001E-2</v>
-          </cell>
-          <cell r="Y36">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>0.37442129629629628</v>
-          </cell>
-          <cell r="B37">
-            <v>0.624</v>
-          </cell>
-          <cell r="C37">
-            <v>0.56899999999999995</v>
-          </cell>
-          <cell r="D37">
-            <v>0.70699999999999996</v>
-          </cell>
-          <cell r="E37">
-            <v>4.2000000000000003E-2</v>
-          </cell>
-          <cell r="F37">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="G37">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="H37">
-            <v>0.68700000000000006</v>
-          </cell>
-          <cell r="I37">
-            <v>0.61799999999999999</v>
-          </cell>
-          <cell r="J37">
-            <v>0.76700000000000002</v>
-          </cell>
-          <cell r="K37">
-            <v>8.8999999999999996E-2</v>
-          </cell>
-          <cell r="L37">
-            <v>4.3999999999999997E-2</v>
-          </cell>
-          <cell r="M37">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="N37">
-            <v>0.628</v>
-          </cell>
-          <cell r="O37">
-            <v>0.88400000000000001</v>
-          </cell>
-          <cell r="P37">
-            <v>0.749</v>
-          </cell>
-          <cell r="Q37">
-            <v>9.2999999999999999E-2</v>
-          </cell>
-          <cell r="R37">
-            <v>7.0999999999999994E-2</v>
-          </cell>
-          <cell r="S37">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="T37">
-            <v>0.72199999999999998</v>
-          </cell>
-          <cell r="U37">
-            <v>0.69199999999999995</v>
-          </cell>
-          <cell r="V37">
-            <v>0.746</v>
-          </cell>
-          <cell r="W37">
-            <v>0.13100000000000001</v>
-          </cell>
-          <cell r="X37">
-            <v>0.09</v>
-          </cell>
-          <cell r="Y37">
-            <v>8.2000000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>0.38483796296296297</v>
-          </cell>
-          <cell r="B38">
-            <v>0.67100000000000004</v>
-          </cell>
-          <cell r="C38">
-            <v>0.62</v>
-          </cell>
-          <cell r="D38">
-            <v>0.749</v>
-          </cell>
-          <cell r="E38">
-            <v>4.9000000000000002E-2</v>
-          </cell>
-          <cell r="F38">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="G38">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="H38">
-            <v>0.73399999999999999</v>
-          </cell>
-          <cell r="I38">
-            <v>0.66300000000000003</v>
-          </cell>
-          <cell r="J38">
-            <v>0.80500000000000005</v>
-          </cell>
-          <cell r="K38">
-            <v>0.104</v>
-          </cell>
-          <cell r="L38">
-            <v>5.6000000000000001E-2</v>
-          </cell>
-          <cell r="M38">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="N38">
-            <v>0.67100000000000004</v>
-          </cell>
-          <cell r="O38">
-            <v>0.91</v>
-          </cell>
-          <cell r="P38">
-            <v>0.78600000000000003</v>
-          </cell>
-          <cell r="Q38">
-            <v>0.108</v>
-          </cell>
-          <cell r="R38">
-            <v>8.2000000000000003E-2</v>
-          </cell>
-          <cell r="S38">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="T38">
-            <v>0.76800000000000002</v>
-          </cell>
-          <cell r="U38">
-            <v>0.74</v>
-          </cell>
-          <cell r="V38">
-            <v>0.78800000000000003</v>
-          </cell>
-          <cell r="W38">
-            <v>0.159</v>
-          </cell>
-          <cell r="X38">
-            <v>0.10199999999999999</v>
-          </cell>
-          <cell r="Y38">
-            <v>9.6000000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>0.39525462962962959</v>
-          </cell>
-          <cell r="B39">
-            <v>0.71499999999999997</v>
-          </cell>
-          <cell r="C39">
-            <v>0.66800000000000004</v>
-          </cell>
-          <cell r="D39">
-            <v>0.78800000000000003</v>
-          </cell>
-          <cell r="E39">
-            <v>5.6000000000000001E-2</v>
-          </cell>
-          <cell r="F39">
-            <v>0.02</v>
-          </cell>
-          <cell r="G39">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="H39">
-            <v>0.77900000000000003</v>
-          </cell>
-          <cell r="I39">
-            <v>0.70699999999999996</v>
-          </cell>
-          <cell r="J39">
-            <v>0.83899999999999997</v>
-          </cell>
-          <cell r="K39">
-            <v>0.122</v>
-          </cell>
-          <cell r="L39">
-            <v>6.6000000000000003E-2</v>
-          </cell>
-          <cell r="M39">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="N39">
-            <v>0.71399999999999997</v>
-          </cell>
-          <cell r="O39">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="P39">
-            <v>0.82</v>
-          </cell>
-          <cell r="Q39">
-            <v>0.127</v>
-          </cell>
-          <cell r="R39">
-            <v>9.6000000000000002E-2</v>
-          </cell>
-          <cell r="S39">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="T39">
-            <v>0.80400000000000005</v>
-          </cell>
-          <cell r="U39">
-            <v>0.78100000000000003</v>
-          </cell>
-          <cell r="V39">
-            <v>0.82499999999999996</v>
-          </cell>
-          <cell r="W39">
-            <v>0.192</v>
-          </cell>
-          <cell r="X39">
-            <v>0.115</v>
-          </cell>
-          <cell r="Y39">
-            <v>0.11</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>0.40567129629629628</v>
-          </cell>
-          <cell r="B40">
-            <v>0.75800000000000001</v>
-          </cell>
-          <cell r="C40">
-            <v>0.71</v>
-          </cell>
-          <cell r="D40">
-            <v>0.82199999999999995</v>
-          </cell>
-          <cell r="E40">
-            <v>6.5000000000000002E-2</v>
-          </cell>
-          <cell r="F40">
-            <v>2.3E-2</v>
-          </cell>
-          <cell r="G40">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="H40">
-            <v>0.81499999999999995</v>
-          </cell>
-          <cell r="I40">
-            <v>0.747</v>
-          </cell>
-          <cell r="J40">
-            <v>0.86899999999999999</v>
-          </cell>
-          <cell r="K40">
-            <v>0.14799999999999999</v>
-          </cell>
-          <cell r="L40">
-            <v>7.9000000000000001E-2</v>
-          </cell>
-          <cell r="M40">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="N40">
-            <v>0.751</v>
-          </cell>
-          <cell r="O40">
-            <v>0.94499999999999995</v>
-          </cell>
-          <cell r="P40">
-            <v>0.85199999999999998</v>
-          </cell>
-          <cell r="Q40">
-            <v>0.154</v>
-          </cell>
-          <cell r="R40">
-            <v>0.111</v>
-          </cell>
-          <cell r="S40">
-            <v>2.3E-2</v>
-          </cell>
-          <cell r="T40">
-            <v>0.83699999999999997</v>
-          </cell>
-          <cell r="U40">
-            <v>0.81599999999999995</v>
-          </cell>
-          <cell r="V40">
-            <v>0.85699999999999998</v>
-          </cell>
-          <cell r="W40">
-            <v>0.22500000000000001</v>
-          </cell>
-          <cell r="X40">
-            <v>0.13200000000000001</v>
-          </cell>
-          <cell r="Y40">
-            <v>0.13</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>0.41608796296296297</v>
-          </cell>
-          <cell r="B41">
-            <v>0.79500000000000004</v>
-          </cell>
-          <cell r="C41">
-            <v>0.75</v>
-          </cell>
-          <cell r="D41">
-            <v>0.85199999999999998</v>
-          </cell>
-          <cell r="E41">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-          <cell r="F41">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="G41">
-            <v>0.02</v>
-          </cell>
-          <cell r="H41">
-            <v>0.84899999999999998</v>
-          </cell>
-          <cell r="I41">
-            <v>0.78200000000000003</v>
-          </cell>
-          <cell r="J41">
-            <v>0.89400000000000002</v>
-          </cell>
-          <cell r="K41">
-            <v>0.17899999999999999</v>
-          </cell>
-          <cell r="L41">
-            <v>9.1999999999999998E-2</v>
-          </cell>
-          <cell r="M41">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="N41">
-            <v>0.78800000000000003</v>
-          </cell>
-          <cell r="O41">
-            <v>0.95199999999999996</v>
-          </cell>
-          <cell r="P41">
-            <v>0.879</v>
-          </cell>
-          <cell r="Q41">
-            <v>0.186</v>
-          </cell>
-          <cell r="R41">
-            <v>0.13300000000000001</v>
-          </cell>
-          <cell r="S41">
-            <v>2.9000000000000001E-2</v>
-          </cell>
-          <cell r="T41">
-            <v>0.86599999999999999</v>
-          </cell>
-          <cell r="U41">
-            <v>0.84799999999999998</v>
-          </cell>
-          <cell r="V41">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="W41">
-            <v>0.26200000000000001</v>
-          </cell>
-          <cell r="X41">
-            <v>0.155</v>
-          </cell>
-          <cell r="Y41">
-            <v>0.156</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>0.42650462962962959</v>
-          </cell>
-          <cell r="B42">
-            <v>0.82899999999999996</v>
-          </cell>
-          <cell r="C42">
-            <v>0.78500000000000003</v>
-          </cell>
-          <cell r="D42">
-            <v>0.877</v>
-          </cell>
-          <cell r="E42">
-            <v>8.4000000000000005E-2</v>
-          </cell>
-          <cell r="F42">
-            <v>3.3000000000000002E-2</v>
-          </cell>
-          <cell r="G42">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="H42">
-            <v>0.877</v>
-          </cell>
-          <cell r="I42">
-            <v>0.81399999999999995</v>
-          </cell>
-          <cell r="J42">
-            <v>0.91200000000000003</v>
-          </cell>
-          <cell r="K42">
-            <v>0.21199999999999999</v>
-          </cell>
-          <cell r="L42">
-            <v>0.107</v>
-          </cell>
-          <cell r="M42">
-            <v>4.3999999999999997E-2</v>
-          </cell>
-          <cell r="N42">
-            <v>0.82099999999999995</v>
-          </cell>
-          <cell r="O42">
-            <v>0.95499999999999996</v>
-          </cell>
-          <cell r="P42">
-            <v>0.90200000000000002</v>
-          </cell>
-          <cell r="Q42">
-            <v>0.218</v>
-          </cell>
-          <cell r="R42">
-            <v>0.161</v>
-          </cell>
-          <cell r="S42">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="T42">
-            <v>0.89400000000000002</v>
-          </cell>
-          <cell r="U42">
-            <v>0.875</v>
-          </cell>
-          <cell r="V42">
-            <v>0.91</v>
-          </cell>
-          <cell r="W42">
-            <v>0.30199999999999999</v>
-          </cell>
-          <cell r="X42">
-            <v>0.184</v>
-          </cell>
-          <cell r="Y42">
-            <v>0.188</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>0.43692129629629628</v>
-          </cell>
-          <cell r="B43">
-            <v>0.85899999999999999</v>
-          </cell>
-          <cell r="C43">
-            <v>0.81599999999999995</v>
-          </cell>
-          <cell r="D43">
-            <v>0.89700000000000002</v>
-          </cell>
-          <cell r="E43">
-            <v>9.5000000000000001E-2</v>
-          </cell>
-          <cell r="F43">
-            <v>3.7999999999999999E-2</v>
-          </cell>
-          <cell r="G43">
-            <v>3.2000000000000001E-2</v>
-          </cell>
-          <cell r="H43">
-            <v>0.90300000000000002</v>
-          </cell>
-          <cell r="I43">
-            <v>0.84199999999999997</v>
-          </cell>
-          <cell r="J43">
-            <v>0.92</v>
-          </cell>
-          <cell r="K43">
-            <v>0.247</v>
-          </cell>
-          <cell r="L43">
-            <v>0.127</v>
-          </cell>
-          <cell r="M43">
-            <v>5.5E-2</v>
-          </cell>
-          <cell r="N43">
-            <v>0.84699999999999998</v>
-          </cell>
-          <cell r="O43">
-            <v>0.95699999999999996</v>
-          </cell>
-          <cell r="P43">
-            <v>0.91300000000000003</v>
-          </cell>
-          <cell r="Q43">
-            <v>0.25600000000000001</v>
-          </cell>
-          <cell r="R43">
-            <v>0.19500000000000001</v>
-          </cell>
-          <cell r="S43">
-            <v>4.3999999999999997E-2</v>
-          </cell>
-          <cell r="T43">
-            <v>0.91700000000000004</v>
-          </cell>
-          <cell r="U43">
-            <v>0.89800000000000002</v>
-          </cell>
-          <cell r="V43">
-            <v>0.92300000000000004</v>
-          </cell>
-          <cell r="W43">
-            <v>0.32700000000000001</v>
-          </cell>
-          <cell r="X43">
-            <v>0.217</v>
-          </cell>
-          <cell r="Y43">
-            <v>0.222</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>0.44733796296296297</v>
-          </cell>
-          <cell r="B44">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="C44">
-            <v>0.84499999999999997</v>
-          </cell>
-          <cell r="D44">
-            <v>0.90700000000000003</v>
-          </cell>
-          <cell r="E44">
-            <v>0.108</v>
-          </cell>
-          <cell r="F44">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-          <cell r="G44">
-            <v>4.1000000000000002E-2</v>
-          </cell>
-          <cell r="H44">
-            <v>0.91700000000000004</v>
-          </cell>
-          <cell r="I44">
-            <v>0.86599999999999999</v>
-          </cell>
-          <cell r="J44">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="K44">
-            <v>0.28499999999999998</v>
-          </cell>
-          <cell r="L44">
-            <v>0.155</v>
-          </cell>
-          <cell r="M44">
-            <v>6.6000000000000003E-2</v>
-          </cell>
-          <cell r="N44">
-            <v>0.873</v>
-          </cell>
-          <cell r="O44">
-            <v>0.95799999999999996</v>
-          </cell>
-          <cell r="P44">
-            <v>0.91900000000000004</v>
-          </cell>
-          <cell r="Q44">
-            <v>0.29199999999999998</v>
-          </cell>
-          <cell r="R44">
-            <v>0.22700000000000001</v>
-          </cell>
-          <cell r="S44">
-            <v>5.3999999999999999E-2</v>
-          </cell>
-          <cell r="T44">
-            <v>0.93799999999999994</v>
-          </cell>
-          <cell r="U44">
-            <v>0.90900000000000003</v>
-          </cell>
-          <cell r="V44">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="W44">
-            <v>0.35199999999999998</v>
-          </cell>
-          <cell r="X44">
-            <v>0.249</v>
-          </cell>
-          <cell r="Y44">
-            <v>0.26100000000000001</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>0.45775462962962959</v>
-          </cell>
-          <cell r="B45">
-            <v>0.90100000000000002</v>
-          </cell>
-          <cell r="C45">
-            <v>0.86899999999999999</v>
-          </cell>
-          <cell r="D45">
-            <v>0.91300000000000003</v>
-          </cell>
-          <cell r="E45">
-            <v>0.121</v>
-          </cell>
-          <cell r="F45">
-            <v>5.2999999999999999E-2</v>
-          </cell>
-          <cell r="G45">
-            <v>5.0999999999999997E-2</v>
-          </cell>
-          <cell r="H45">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="I45">
-            <v>0.88600000000000001</v>
-          </cell>
-          <cell r="J45">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="K45">
-            <v>0.308</v>
-          </cell>
-          <cell r="L45">
-            <v>0.188</v>
-          </cell>
-          <cell r="M45">
-            <v>7.8E-2</v>
-          </cell>
-          <cell r="N45">
-            <v>0.89600000000000002</v>
-          </cell>
-          <cell r="O45">
-            <v>0.95799999999999996</v>
-          </cell>
-          <cell r="P45">
-            <v>0.92200000000000004</v>
-          </cell>
-          <cell r="Q45">
-            <v>0.315</v>
-          </cell>
-          <cell r="R45">
-            <v>0.26700000000000002</v>
-          </cell>
-          <cell r="S45">
-            <v>6.5000000000000002E-2</v>
-          </cell>
-          <cell r="T45">
-            <v>0.94699999999999995</v>
-          </cell>
-          <cell r="U45">
-            <v>0.91600000000000004</v>
-          </cell>
-          <cell r="V45">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="W45">
-            <v>0.377</v>
-          </cell>
-          <cell r="X45">
-            <v>0.28799999999999998</v>
-          </cell>
-          <cell r="Y45">
-            <v>0.30599999999999999</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>0.46817129629629628</v>
-          </cell>
-          <cell r="B46">
-            <v>0.91100000000000003</v>
-          </cell>
-          <cell r="C46">
-            <v>0.88600000000000001</v>
-          </cell>
-          <cell r="D46">
-            <v>0.91700000000000004</v>
-          </cell>
-          <cell r="E46">
-            <v>0.14000000000000001</v>
-          </cell>
-          <cell r="F46">
-            <v>6.2E-2</v>
-          </cell>
-          <cell r="G46">
-            <v>6.2E-2</v>
-          </cell>
-          <cell r="H46">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="I46">
-            <v>0.89300000000000002</v>
-          </cell>
-          <cell r="J46">
-            <v>0.93</v>
-          </cell>
-          <cell r="K46">
-            <v>0.33200000000000002</v>
-          </cell>
-          <cell r="L46">
-            <v>0.22</v>
-          </cell>
-          <cell r="M46">
-            <v>9.1999999999999998E-2</v>
-          </cell>
-          <cell r="N46">
-            <v>0.91700000000000004</v>
-          </cell>
-          <cell r="O46">
-            <v>0.95699999999999996</v>
-          </cell>
-          <cell r="P46">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="Q46">
-            <v>0.33800000000000002</v>
-          </cell>
-          <cell r="R46">
-            <v>0.311</v>
-          </cell>
-          <cell r="S46">
-            <v>7.5999999999999998E-2</v>
-          </cell>
-          <cell r="T46">
-            <v>0.95199999999999996</v>
-          </cell>
-          <cell r="U46">
-            <v>0.91900000000000004</v>
-          </cell>
-          <cell r="V46">
-            <v>0.94</v>
-          </cell>
-          <cell r="W46">
-            <v>0.40500000000000003</v>
-          </cell>
-          <cell r="X46">
-            <v>0.32800000000000001</v>
-          </cell>
-          <cell r="Y46">
-            <v>0.34200000000000003</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>0.47858796296296297</v>
-          </cell>
-          <cell r="B47">
-            <v>0.91600000000000004</v>
-          </cell>
-          <cell r="C47">
-            <v>0.89300000000000002</v>
-          </cell>
-          <cell r="D47">
-            <v>0.92100000000000004</v>
-          </cell>
-          <cell r="E47">
-            <v>0.161</v>
-          </cell>
-          <cell r="F47">
-            <v>7.3999999999999996E-2</v>
-          </cell>
-          <cell r="G47">
-            <v>7.3999999999999996E-2</v>
-          </cell>
-          <cell r="H47">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="I47">
-            <v>0.89600000000000002</v>
-          </cell>
-          <cell r="J47">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="K47">
-            <v>0.35499999999999998</v>
-          </cell>
-          <cell r="L47">
-            <v>0.25900000000000001</v>
-          </cell>
-          <cell r="M47">
-            <v>0.106</v>
-          </cell>
-          <cell r="N47">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="O47">
-            <v>0.95599999999999996</v>
-          </cell>
-          <cell r="P47">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="Q47">
-            <v>0.36199999999999999</v>
-          </cell>
-          <cell r="R47">
-            <v>0.33800000000000002</v>
-          </cell>
-          <cell r="S47">
-            <v>8.8999999999999996E-2</v>
-          </cell>
-          <cell r="T47">
-            <v>0.95599999999999996</v>
-          </cell>
-          <cell r="U47">
-            <v>0.92100000000000004</v>
-          </cell>
-          <cell r="V47">
-            <v>0.94099999999999995</v>
-          </cell>
-          <cell r="W47">
-            <v>0.435</v>
-          </cell>
-          <cell r="X47">
-            <v>0.35399999999999998</v>
-          </cell>
-          <cell r="Y47">
-            <v>0.372</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>0.48900462962962959</v>
-          </cell>
-          <cell r="B48">
-            <v>0.92100000000000004</v>
-          </cell>
-          <cell r="C48">
-            <v>0.89700000000000002</v>
-          </cell>
-          <cell r="D48">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="E48">
-            <v>0.189</v>
-          </cell>
-          <cell r="F48">
-            <v>8.5000000000000006E-2</v>
-          </cell>
-          <cell r="G48">
-            <v>8.6999999999999994E-2</v>
-          </cell>
-          <cell r="H48">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="I48">
-            <v>0.89700000000000002</v>
-          </cell>
-          <cell r="J48">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="K48">
-            <v>0.38100000000000001</v>
-          </cell>
-          <cell r="L48">
-            <v>0.30299999999999999</v>
-          </cell>
-          <cell r="M48">
-            <v>0.127</v>
-          </cell>
-          <cell r="N48">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="O48">
-            <v>0.95499999999999996</v>
-          </cell>
-          <cell r="P48">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="Q48">
-            <v>0.38800000000000001</v>
-          </cell>
-          <cell r="R48">
-            <v>0.36599999999999999</v>
-          </cell>
-          <cell r="S48">
-            <v>0.10100000000000001</v>
-          </cell>
-          <cell r="T48">
-            <v>0.95799999999999996</v>
-          </cell>
-          <cell r="U48">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="V48">
-            <v>0.94399999999999995</v>
-          </cell>
-          <cell r="W48">
-            <v>0.46700000000000003</v>
-          </cell>
-          <cell r="X48">
-            <v>0.38100000000000001</v>
-          </cell>
-          <cell r="Y48">
-            <v>0.40300000000000002</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>0.49942129629629628</v>
-          </cell>
-          <cell r="B49">
-            <v>0.92200000000000004</v>
-          </cell>
-          <cell r="C49">
-            <v>0.90100000000000002</v>
-          </cell>
-          <cell r="D49">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="E49">
-            <v>0.22</v>
-          </cell>
-          <cell r="F49">
-            <v>9.7000000000000003E-2</v>
-          </cell>
-          <cell r="G49">
-            <v>0.1</v>
-          </cell>
-          <cell r="H49">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="I49">
-            <v>0.89800000000000002</v>
-          </cell>
-          <cell r="J49">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="K49">
-            <v>0.40799999999999997</v>
-          </cell>
-          <cell r="L49">
-            <v>0.33100000000000002</v>
-          </cell>
-          <cell r="M49">
-            <v>0.154</v>
-          </cell>
-          <cell r="N49">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="O49">
-            <v>0.95499999999999996</v>
-          </cell>
-          <cell r="P49">
-            <v>0.92700000000000005</v>
-          </cell>
-          <cell r="Q49">
-            <v>0.41599999999999998</v>
-          </cell>
-          <cell r="R49">
-            <v>0.39600000000000002</v>
-          </cell>
-          <cell r="S49">
-            <v>0.11799999999999999</v>
-          </cell>
-          <cell r="T49">
-            <v>0.96</v>
-          </cell>
-          <cell r="U49">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="V49">
-            <v>0.94499999999999995</v>
-          </cell>
-          <cell r="W49">
-            <v>0.499</v>
-          </cell>
-          <cell r="X49">
-            <v>0.40899999999999997</v>
-          </cell>
-          <cell r="Y49">
-            <v>0.438</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>0.50983796296296291</v>
-          </cell>
-          <cell r="B50">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="C50">
-            <v>0.90300000000000002</v>
-          </cell>
-          <cell r="D50">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="E50">
-            <v>0.254</v>
-          </cell>
-          <cell r="F50">
-            <v>0.11</v>
-          </cell>
-          <cell r="G50">
-            <v>0.11899999999999999</v>
-          </cell>
-          <cell r="H50">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="I50">
-            <v>0.89900000000000002</v>
-          </cell>
-          <cell r="J50">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="K50">
-            <v>0.437</v>
-          </cell>
-          <cell r="L50">
-            <v>0.35899999999999999</v>
-          </cell>
-          <cell r="M50">
-            <v>0.189</v>
-          </cell>
-          <cell r="N50">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="O50">
-            <v>0.95299999999999996</v>
-          </cell>
-          <cell r="P50">
-            <v>0.92700000000000005</v>
-          </cell>
-          <cell r="Q50">
-            <v>0.44500000000000001</v>
-          </cell>
-          <cell r="R50">
-            <v>0.42799999999999999</v>
-          </cell>
-          <cell r="S50">
-            <v>0.13900000000000001</v>
-          </cell>
-          <cell r="T50">
-            <v>0.96</v>
-          </cell>
-          <cell r="U50">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="V50">
-            <v>0.94599999999999995</v>
-          </cell>
-          <cell r="W50">
-            <v>0.51800000000000002</v>
-          </cell>
-          <cell r="X50">
-            <v>0.441</v>
-          </cell>
-          <cell r="Y50">
-            <v>0.47499999999999998</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>0.52025462962962965</v>
-          </cell>
-          <cell r="B51">
-            <v>0.92700000000000005</v>
-          </cell>
-          <cell r="C51">
-            <v>0.90400000000000003</v>
-          </cell>
-          <cell r="D51">
-            <v>0.92900000000000005</v>
-          </cell>
-          <cell r="E51">
-            <v>0.28799999999999998</v>
-          </cell>
-          <cell r="F51">
-            <v>0.127</v>
-          </cell>
-          <cell r="G51">
-            <v>0.14399999999999999</v>
-          </cell>
-          <cell r="H51">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="I51">
-            <v>0.89800000000000002</v>
-          </cell>
-          <cell r="J51">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="K51">
-            <v>0.46600000000000003</v>
-          </cell>
-          <cell r="L51">
-            <v>0.38700000000000001</v>
-          </cell>
-          <cell r="M51">
-            <v>0.222</v>
-          </cell>
-          <cell r="N51">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="O51">
-            <v>0.95299999999999996</v>
-          </cell>
-          <cell r="P51">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="Q51">
-            <v>0.47299999999999998</v>
-          </cell>
-          <cell r="R51">
-            <v>0.46400000000000002</v>
-          </cell>
-          <cell r="S51">
-            <v>0.16800000000000001</v>
-          </cell>
-          <cell r="T51">
-            <v>0.96</v>
-          </cell>
-          <cell r="U51">
-            <v>0.92700000000000005</v>
-          </cell>
-          <cell r="V51">
-            <v>0.94699999999999995</v>
-          </cell>
-          <cell r="W51">
-            <v>0.53200000000000003</v>
-          </cell>
-          <cell r="X51">
-            <v>0.47599999999999998</v>
-          </cell>
-          <cell r="Y51">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>0.53067129629629628</v>
-          </cell>
-          <cell r="B52">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="C52">
-            <v>0.90600000000000003</v>
-          </cell>
-          <cell r="D52">
-            <v>0.93</v>
-          </cell>
-          <cell r="E52">
-            <v>0.308</v>
-          </cell>
-          <cell r="F52">
-            <v>0.14899999999999999</v>
-          </cell>
-          <cell r="G52">
-            <v>0.17499999999999999</v>
-          </cell>
-          <cell r="H52">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="I52">
-            <v>0.89800000000000002</v>
-          </cell>
-          <cell r="J52">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="K52">
-            <v>0.49399999999999999</v>
-          </cell>
-          <cell r="L52">
-            <v>0.41799999999999998</v>
-          </cell>
-          <cell r="M52">
-            <v>0.26100000000000001</v>
-          </cell>
-          <cell r="N52">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="O52">
-            <v>0.95099999999999996</v>
-          </cell>
-          <cell r="P52">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="Q52">
-            <v>0.5</v>
-          </cell>
-          <cell r="R52">
-            <v>0.495</v>
-          </cell>
-          <cell r="S52">
-            <v>0.20200000000000001</v>
-          </cell>
-          <cell r="T52">
-            <v>0.96099999999999997</v>
-          </cell>
-          <cell r="U52">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="V52">
-            <v>0.94699999999999995</v>
-          </cell>
-          <cell r="W52">
-            <v>0.55100000000000005</v>
-          </cell>
-          <cell r="X52">
-            <v>0.502</v>
-          </cell>
-          <cell r="Y52">
-            <v>0.51900000000000002</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>0.54108796296296291</v>
-          </cell>
-          <cell r="B53">
-            <v>0.92900000000000005</v>
-          </cell>
-          <cell r="C53">
-            <v>0.90600000000000003</v>
-          </cell>
-          <cell r="D53">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="E53">
-            <v>0.32800000000000001</v>
-          </cell>
-          <cell r="F53">
-            <v>0.17799999999999999</v>
-          </cell>
-          <cell r="G53">
-            <v>0.20799999999999999</v>
-          </cell>
-          <cell r="H53">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="I53">
-            <v>0.89700000000000002</v>
-          </cell>
-          <cell r="J53">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="K53">
-            <v>0.51900000000000002</v>
-          </cell>
-          <cell r="L53">
-            <v>0.45300000000000001</v>
-          </cell>
-          <cell r="M53">
-            <v>0.307</v>
-          </cell>
-          <cell r="N53">
-            <v>0.93799999999999994</v>
-          </cell>
-          <cell r="O53">
-            <v>0.95</v>
-          </cell>
-          <cell r="P53">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="Q53">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="R53">
-            <v>0.51300000000000001</v>
-          </cell>
-          <cell r="S53">
-            <v>0.23300000000000001</v>
-          </cell>
-          <cell r="T53">
-            <v>0.96099999999999997</v>
-          </cell>
-          <cell r="U53">
-            <v>0.92700000000000005</v>
-          </cell>
-          <cell r="V53">
-            <v>0.94699999999999995</v>
-          </cell>
-          <cell r="W53">
-            <v>0.58199999999999996</v>
-          </cell>
-          <cell r="X53">
-            <v>0.51900000000000002</v>
-          </cell>
-          <cell r="Y53">
-            <v>0.53700000000000003</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>0.55150462962962965</v>
-          </cell>
-          <cell r="B54">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="C54">
-            <v>0.90700000000000003</v>
-          </cell>
-          <cell r="D54">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="E54">
-            <v>0.34899999999999998</v>
-          </cell>
-          <cell r="F54">
-            <v>0.21</v>
-          </cell>
-          <cell r="G54">
-            <v>0.245</v>
-          </cell>
-          <cell r="H54">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="I54">
-            <v>0.89800000000000002</v>
-          </cell>
-          <cell r="J54">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="K54">
-            <v>0.53800000000000003</v>
-          </cell>
-          <cell r="L54">
-            <v>0.48599999999999999</v>
-          </cell>
-          <cell r="M54">
-            <v>0.34</v>
-          </cell>
-          <cell r="N54">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="O54">
-            <v>0.95</v>
-          </cell>
-          <cell r="P54">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="Q54">
-            <v>0.54300000000000004</v>
-          </cell>
-          <cell r="R54">
-            <v>0.52800000000000002</v>
-          </cell>
-          <cell r="S54">
-            <v>0.27200000000000002</v>
-          </cell>
-          <cell r="T54">
-            <v>0.96299999999999997</v>
-          </cell>
-          <cell r="U54">
-            <v>0.92700000000000005</v>
-          </cell>
-          <cell r="V54">
-            <v>0.94799999999999995</v>
-          </cell>
-          <cell r="W54">
-            <v>0.61199999999999999</v>
-          </cell>
-          <cell r="X54">
-            <v>0.53400000000000003</v>
-          </cell>
-          <cell r="Y54">
-            <v>0.56599999999999995</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>0.56192129629629628</v>
-          </cell>
-          <cell r="B55">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="C55">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="D55">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="E55">
-            <v>0.371</v>
-          </cell>
-          <cell r="F55">
-            <v>0.24099999999999999</v>
-          </cell>
-          <cell r="G55">
-            <v>0.28899999999999998</v>
-          </cell>
-          <cell r="H55">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="I55">
-            <v>0.89700000000000002</v>
-          </cell>
-          <cell r="J55">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="K55">
-            <v>0.55300000000000005</v>
-          </cell>
-          <cell r="L55">
-            <v>0.50600000000000001</v>
-          </cell>
-          <cell r="M55">
-            <v>0.36899999999999999</v>
-          </cell>
-          <cell r="N55">
-            <v>0.93899999999999995</v>
-          </cell>
-          <cell r="O55">
-            <v>0.94899999999999995</v>
-          </cell>
-          <cell r="P55">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="Q55">
-            <v>0.55900000000000005</v>
-          </cell>
-          <cell r="R55">
-            <v>0.55200000000000005</v>
-          </cell>
-          <cell r="S55">
-            <v>0.315</v>
-          </cell>
-          <cell r="T55">
-            <v>0.96199999999999997</v>
-          </cell>
-          <cell r="U55">
-            <v>0.92700000000000005</v>
-          </cell>
-          <cell r="V55">
-            <v>0.94799999999999995</v>
-          </cell>
-          <cell r="W55">
-            <v>0.628</v>
-          </cell>
-          <cell r="X55">
-            <v>0.55900000000000005</v>
-          </cell>
-          <cell r="Y55">
-            <v>0.60099999999999998</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>0.57233796296296291</v>
-          </cell>
-          <cell r="B56">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="C56">
-            <v>0.90900000000000003</v>
-          </cell>
-          <cell r="D56">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="E56">
-            <v>0.39600000000000002</v>
-          </cell>
-          <cell r="F56">
-            <v>0.28399999999999997</v>
-          </cell>
-          <cell r="G56">
-            <v>0.32600000000000001</v>
-          </cell>
-          <cell r="H56">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="I56">
-            <v>0.89700000000000002</v>
-          </cell>
-          <cell r="J56">
-            <v>0.93</v>
-          </cell>
-          <cell r="K56">
-            <v>0.57899999999999996</v>
-          </cell>
-          <cell r="L56">
-            <v>0.52</v>
-          </cell>
-          <cell r="M56">
-            <v>0.4</v>
-          </cell>
-          <cell r="N56">
-            <v>0.93899999999999995</v>
-          </cell>
-          <cell r="O56">
-            <v>0.94699999999999995</v>
-          </cell>
-          <cell r="P56">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="Q56">
-            <v>0.58499999999999996</v>
-          </cell>
-          <cell r="R56">
-            <v>0.58099999999999996</v>
-          </cell>
-          <cell r="S56">
-            <v>0.34200000000000003</v>
-          </cell>
-          <cell r="T56">
-            <v>0.96099999999999997</v>
-          </cell>
-          <cell r="U56">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="V56">
-            <v>0.94799999999999995</v>
-          </cell>
-          <cell r="W56">
-            <v>0.64100000000000001</v>
-          </cell>
-          <cell r="X56">
-            <v>0.58799999999999997</v>
-          </cell>
-          <cell r="Y56">
-            <v>0.65200000000000002</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>0.58275462962962965</v>
-          </cell>
-          <cell r="B57">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="C57">
-            <v>0.90900000000000003</v>
-          </cell>
-          <cell r="D57">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="E57">
-            <v>0.42099999999999999</v>
-          </cell>
-          <cell r="F57">
-            <v>0.316</v>
-          </cell>
-          <cell r="G57">
-            <v>0.35399999999999998</v>
-          </cell>
-          <cell r="H57">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="I57">
-            <v>0.89600000000000002</v>
-          </cell>
-          <cell r="J57">
-            <v>0.93</v>
-          </cell>
-          <cell r="K57">
-            <v>0.60599999999999998</v>
-          </cell>
-          <cell r="L57">
-            <v>0.54200000000000004</v>
-          </cell>
-          <cell r="M57">
-            <v>0.433</v>
-          </cell>
-          <cell r="N57">
-            <v>0.93899999999999995</v>
-          </cell>
-          <cell r="O57">
-            <v>0.94599999999999995</v>
-          </cell>
-          <cell r="P57">
-            <v>0.92300000000000004</v>
-          </cell>
-          <cell r="Q57">
-            <v>0.61</v>
-          </cell>
-          <cell r="R57">
-            <v>0.621</v>
-          </cell>
-          <cell r="S57">
-            <v>0.36799999999999999</v>
-          </cell>
-          <cell r="T57">
-            <v>0.96299999999999997</v>
-          </cell>
-          <cell r="U57">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="V57">
-            <v>0.94699999999999995</v>
-          </cell>
-          <cell r="W57">
-            <v>0.65700000000000003</v>
-          </cell>
-          <cell r="X57">
-            <v>0.63</v>
-          </cell>
-          <cell r="Y57">
-            <v>0.67700000000000005</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>0.59317129629629628</v>
-          </cell>
-          <cell r="B58">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="C58">
-            <v>0.90900000000000003</v>
-          </cell>
-          <cell r="D58">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="E58">
-            <v>0.44700000000000001</v>
-          </cell>
-          <cell r="F58">
-            <v>0.34</v>
-          </cell>
-          <cell r="G58">
-            <v>0.38500000000000001</v>
-          </cell>
-          <cell r="H58">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="I58">
-            <v>0.89500000000000002</v>
-          </cell>
-          <cell r="J58">
-            <v>0.93</v>
-          </cell>
-          <cell r="K58">
-            <v>0.622</v>
-          </cell>
-          <cell r="L58">
-            <v>0.56999999999999995</v>
-          </cell>
-          <cell r="M58">
-            <v>0.46899999999999997</v>
-          </cell>
-          <cell r="N58">
-            <v>0.93799999999999994</v>
-          </cell>
-          <cell r="O58">
-            <v>0.94499999999999995</v>
-          </cell>
-          <cell r="P58">
-            <v>0.92200000000000004</v>
-          </cell>
-          <cell r="Q58">
-            <v>0.624</v>
-          </cell>
-          <cell r="R58">
-            <v>0.64200000000000002</v>
-          </cell>
-          <cell r="S58">
-            <v>0.39600000000000002</v>
-          </cell>
-          <cell r="T58">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="U58">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="V58">
-            <v>0.94699999999999995</v>
-          </cell>
-          <cell r="W58">
-            <v>0.67300000000000004</v>
-          </cell>
-          <cell r="X58">
-            <v>0.65</v>
-          </cell>
-          <cell r="Y58">
-            <v>0.69599999999999995</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>0.60358796296296291</v>
-          </cell>
-          <cell r="B59">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="C59">
-            <v>0.91</v>
-          </cell>
-          <cell r="D59">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="E59">
-            <v>0.47199999999999998</v>
-          </cell>
-          <cell r="F59">
-            <v>0.36299999999999999</v>
-          </cell>
-          <cell r="G59">
-            <v>0.41699999999999998</v>
-          </cell>
-          <cell r="H59">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="I59">
-            <v>0.89500000000000002</v>
-          </cell>
-          <cell r="J59">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="K59">
-            <v>0.63500000000000001</v>
-          </cell>
-          <cell r="L59">
-            <v>0.61</v>
-          </cell>
-          <cell r="M59">
-            <v>0.495</v>
-          </cell>
-          <cell r="N59">
-            <v>0.93799999999999994</v>
-          </cell>
-          <cell r="O59">
-            <v>0.94499999999999995</v>
-          </cell>
-          <cell r="P59">
-            <v>0.92</v>
-          </cell>
-          <cell r="Q59">
-            <v>0.63600000000000001</v>
-          </cell>
-          <cell r="R59">
-            <v>0.65600000000000003</v>
-          </cell>
-          <cell r="S59">
-            <v>0.42499999999999999</v>
-          </cell>
-          <cell r="T59">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="U59">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="V59">
-            <v>0.94599999999999995</v>
-          </cell>
-          <cell r="W59">
-            <v>0.69</v>
-          </cell>
-          <cell r="X59">
-            <v>0.66400000000000003</v>
-          </cell>
-          <cell r="Y59">
-            <v>0.71699999999999997</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>0.61400462962962965</v>
-          </cell>
-          <cell r="B60">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="C60">
-            <v>0.90900000000000003</v>
-          </cell>
-          <cell r="D60">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="E60">
-            <v>0.496</v>
-          </cell>
-          <cell r="F60">
-            <v>0.38900000000000001</v>
-          </cell>
-          <cell r="G60">
-            <v>0.45400000000000001</v>
-          </cell>
-          <cell r="H60">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="I60">
-            <v>0.89400000000000002</v>
-          </cell>
-          <cell r="J60">
-            <v>0.92700000000000005</v>
-          </cell>
-          <cell r="K60">
-            <v>0.64800000000000002</v>
-          </cell>
-          <cell r="L60">
-            <v>0.63200000000000001</v>
-          </cell>
-          <cell r="M60">
-            <v>0.51200000000000001</v>
-          </cell>
-          <cell r="N60">
-            <v>0.93799999999999994</v>
-          </cell>
-          <cell r="O60">
-            <v>0.94299999999999995</v>
-          </cell>
-          <cell r="P60">
-            <v>0.91900000000000004</v>
-          </cell>
-          <cell r="Q60">
-            <v>0.64700000000000002</v>
-          </cell>
-          <cell r="R60">
-            <v>0.67</v>
-          </cell>
-          <cell r="S60">
-            <v>0.45700000000000002</v>
-          </cell>
-          <cell r="T60">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="U60">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="V60">
-            <v>0.94399999999999995</v>
-          </cell>
-          <cell r="W60">
-            <v>0.70499999999999996</v>
-          </cell>
-          <cell r="X60">
-            <v>0.67800000000000005</v>
-          </cell>
-          <cell r="Y60">
-            <v>0.73799999999999999</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>0.62442129629629628</v>
-          </cell>
-          <cell r="B61">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="C61">
-            <v>0.90900000000000003</v>
-          </cell>
-          <cell r="D61">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="E61">
-            <v>0.51900000000000002</v>
-          </cell>
-          <cell r="F61">
-            <v>0.41799999999999998</v>
-          </cell>
-          <cell r="G61">
-            <v>0.48099999999999998</v>
-          </cell>
-          <cell r="H61">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="I61">
-            <v>0.89300000000000002</v>
-          </cell>
-          <cell r="J61">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="K61">
-            <v>0.66200000000000003</v>
-          </cell>
-          <cell r="L61">
-            <v>0.64600000000000002</v>
-          </cell>
-          <cell r="M61">
-            <v>0.52900000000000003</v>
-          </cell>
-          <cell r="N61">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="O61">
-            <v>0.94199999999999995</v>
-          </cell>
-          <cell r="P61">
-            <v>0.91800000000000004</v>
-          </cell>
-          <cell r="Q61">
-            <v>0.66100000000000003</v>
-          </cell>
-          <cell r="R61">
-            <v>0.68500000000000005</v>
-          </cell>
-          <cell r="S61">
-            <v>0.48899999999999999</v>
-          </cell>
-          <cell r="T61">
-            <v>0.96299999999999997</v>
-          </cell>
-          <cell r="U61">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="V61">
-            <v>0.94399999999999995</v>
-          </cell>
-          <cell r="W61">
-            <v>0.71899999999999997</v>
-          </cell>
-          <cell r="X61">
-            <v>0.69499999999999995</v>
-          </cell>
-          <cell r="Y61">
-            <v>0.75700000000000001</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>0.63483796296296291</v>
-          </cell>
-          <cell r="B62">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="C62">
-            <v>0.90900000000000003</v>
-          </cell>
-          <cell r="D62">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="E62">
-            <v>0.53500000000000003</v>
-          </cell>
-          <cell r="F62">
-            <v>0.44600000000000001</v>
-          </cell>
-          <cell r="G62">
-            <v>0.5</v>
-          </cell>
-          <cell r="H62">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="I62">
-            <v>0.89200000000000002</v>
-          </cell>
-          <cell r="J62">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="K62">
-            <v>0.67600000000000005</v>
-          </cell>
-          <cell r="L62">
-            <v>0.66</v>
-          </cell>
-          <cell r="M62">
-            <v>0.55600000000000005</v>
-          </cell>
-          <cell r="N62">
-            <v>0.93799999999999994</v>
-          </cell>
-          <cell r="O62">
-            <v>0.94</v>
-          </cell>
-          <cell r="P62">
-            <v>0.91600000000000004</v>
-          </cell>
-          <cell r="Q62">
-            <v>0.67300000000000004</v>
-          </cell>
-          <cell r="R62">
-            <v>0.70199999999999996</v>
-          </cell>
-          <cell r="S62">
-            <v>0.51</v>
-          </cell>
-          <cell r="T62">
-            <v>0.96299999999999997</v>
-          </cell>
-          <cell r="U62">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="V62">
-            <v>0.94199999999999995</v>
-          </cell>
-          <cell r="W62">
-            <v>0.73399999999999999</v>
-          </cell>
-          <cell r="X62">
-            <v>0.71199999999999997</v>
-          </cell>
-          <cell r="Y62">
-            <v>0.77200000000000002</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>0.64525462962962965</v>
-          </cell>
-          <cell r="B63">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="C63">
-            <v>0.91</v>
-          </cell>
-          <cell r="D63">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="E63">
-            <v>0.54800000000000004</v>
-          </cell>
-          <cell r="F63">
-            <v>0.47699999999999998</v>
-          </cell>
-          <cell r="G63">
-            <v>0.51700000000000002</v>
-          </cell>
-          <cell r="H63">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="I63">
-            <v>0.89200000000000002</v>
-          </cell>
-          <cell r="J63">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="K63">
-            <v>0.69</v>
-          </cell>
-          <cell r="L63">
-            <v>0.67700000000000005</v>
-          </cell>
-          <cell r="M63">
-            <v>0.58799999999999997</v>
-          </cell>
-          <cell r="N63">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="O63">
-            <v>0.94</v>
-          </cell>
-          <cell r="P63">
-            <v>0.91400000000000003</v>
-          </cell>
-          <cell r="Q63">
-            <v>0.68600000000000005</v>
-          </cell>
-          <cell r="R63">
-            <v>0.71799999999999997</v>
-          </cell>
-          <cell r="S63">
-            <v>0.52300000000000002</v>
-          </cell>
-          <cell r="T63">
-            <v>0.96199999999999997</v>
-          </cell>
-          <cell r="U63">
-            <v>0.92200000000000004</v>
-          </cell>
-          <cell r="V63">
-            <v>0.94199999999999995</v>
-          </cell>
-          <cell r="W63">
-            <v>0.74399999999999999</v>
-          </cell>
-          <cell r="X63">
-            <v>0.72699999999999998</v>
-          </cell>
-          <cell r="Y63">
-            <v>0.78300000000000003</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>0.65567129629629628</v>
-          </cell>
-          <cell r="B64">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="C64">
-            <v>0.90900000000000003</v>
-          </cell>
-          <cell r="D64">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="E64">
-            <v>0.57299999999999995</v>
-          </cell>
-          <cell r="F64">
-            <v>0.503</v>
-          </cell>
-          <cell r="G64">
-            <v>0.54200000000000004</v>
-          </cell>
-          <cell r="H64">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="I64">
-            <v>0.89100000000000001</v>
-          </cell>
-          <cell r="J64">
-            <v>0.92200000000000004</v>
-          </cell>
-          <cell r="K64">
-            <v>0.70299999999999996</v>
-          </cell>
-          <cell r="L64">
-            <v>0.69399999999999995</v>
-          </cell>
-          <cell r="M64">
-            <v>0.627</v>
-          </cell>
-          <cell r="N64">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="O64">
-            <v>0.93899999999999995</v>
-          </cell>
-          <cell r="P64">
-            <v>0.91300000000000003</v>
-          </cell>
-          <cell r="Q64">
-            <v>0.69799999999999995</v>
-          </cell>
-          <cell r="R64">
-            <v>0.73199999999999998</v>
-          </cell>
-          <cell r="S64">
-            <v>0.54</v>
-          </cell>
-          <cell r="T64">
-            <v>0.96299999999999997</v>
-          </cell>
-          <cell r="U64">
-            <v>0.92200000000000004</v>
-          </cell>
-          <cell r="V64">
-            <v>0.94</v>
-          </cell>
-          <cell r="W64">
-            <v>0.753</v>
-          </cell>
-          <cell r="X64">
-            <v>0.74</v>
-          </cell>
-          <cell r="Y64">
-            <v>0.79600000000000004</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>0.66608796296296291</v>
-          </cell>
-          <cell r="B65">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="C65">
-            <v>0.90900000000000003</v>
-          </cell>
-          <cell r="D65">
-            <v>0.93</v>
-          </cell>
-          <cell r="E65">
-            <v>0.59599999999999997</v>
-          </cell>
-          <cell r="F65">
-            <v>0.51900000000000002</v>
-          </cell>
-          <cell r="G65">
-            <v>0.57399999999999995</v>
-          </cell>
-          <cell r="H65">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="I65">
-            <v>0.89</v>
-          </cell>
-          <cell r="J65">
-            <v>0.92</v>
-          </cell>
-          <cell r="K65">
-            <v>0.71599999999999997</v>
-          </cell>
-          <cell r="L65">
-            <v>0.71</v>
-          </cell>
-          <cell r="M65">
-            <v>0.64700000000000002</v>
-          </cell>
-          <cell r="N65">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="O65">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="P65">
-            <v>0.91100000000000003</v>
-          </cell>
-          <cell r="Q65">
-            <v>0.70799999999999996</v>
-          </cell>
-          <cell r="R65">
-            <v>0.745</v>
-          </cell>
-          <cell r="S65">
-            <v>0.56499999999999995</v>
-          </cell>
-          <cell r="T65">
-            <v>0.96299999999999997</v>
-          </cell>
-          <cell r="U65">
-            <v>0.92100000000000004</v>
-          </cell>
-          <cell r="V65">
-            <v>0.93799999999999994</v>
-          </cell>
-          <cell r="W65">
-            <v>0.76200000000000001</v>
-          </cell>
-          <cell r="X65">
-            <v>0.754</v>
-          </cell>
-          <cell r="Y65">
-            <v>0.80700000000000005</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>0.67650462962962965</v>
-          </cell>
-          <cell r="B66">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="C66">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="D66">
-            <v>0.93</v>
-          </cell>
-          <cell r="E66">
-            <v>0.61</v>
-          </cell>
-          <cell r="F66">
-            <v>0.53200000000000003</v>
-          </cell>
-          <cell r="G66">
-            <v>0.61399999999999999</v>
-          </cell>
-          <cell r="H66">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="I66">
-            <v>0.89</v>
-          </cell>
-          <cell r="J66">
-            <v>0.91900000000000004</v>
-          </cell>
-          <cell r="K66">
-            <v>0.72599999999999998</v>
-          </cell>
-          <cell r="L66">
-            <v>0.72499999999999998</v>
-          </cell>
-          <cell r="M66">
-            <v>0.66100000000000003</v>
-          </cell>
-          <cell r="N66">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="O66">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="P66">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="Q66">
-            <v>0.72</v>
-          </cell>
-          <cell r="R66">
-            <v>0.755</v>
-          </cell>
-          <cell r="S66">
-            <v>0.60099999999999998</v>
-          </cell>
-          <cell r="T66">
-            <v>0.96199999999999997</v>
-          </cell>
-          <cell r="U66">
-            <v>0.92100000000000004</v>
-          </cell>
-          <cell r="V66">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="W66">
-            <v>0.76800000000000002</v>
-          </cell>
-          <cell r="X66">
-            <v>0.76300000000000001</v>
-          </cell>
-          <cell r="Y66">
-            <v>0.81799999999999995</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>0.68692129629629628</v>
-          </cell>
-          <cell r="B67">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="C67">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="D67">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="E67">
-            <v>0.621</v>
-          </cell>
-          <cell r="F67">
-            <v>0.55200000000000005</v>
-          </cell>
-          <cell r="G67">
-            <v>0.63600000000000001</v>
-          </cell>
-          <cell r="H67">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="I67">
-            <v>0.88800000000000001</v>
-          </cell>
-          <cell r="J67">
-            <v>0.91700000000000004</v>
-          </cell>
-          <cell r="K67">
-            <v>0.73499999999999999</v>
-          </cell>
-          <cell r="L67">
-            <v>0.73799999999999999</v>
-          </cell>
-          <cell r="M67">
-            <v>0.67700000000000005</v>
-          </cell>
-          <cell r="N67">
-            <v>0.93600000000000005</v>
-          </cell>
-          <cell r="O67">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="P67">
-            <v>0.90700000000000003</v>
-          </cell>
-          <cell r="Q67">
-            <v>0.72799999999999998</v>
-          </cell>
-          <cell r="R67">
-            <v>0.76300000000000001</v>
-          </cell>
-          <cell r="S67">
-            <v>0.624</v>
-          </cell>
-          <cell r="T67">
-            <v>0.96199999999999997</v>
-          </cell>
-          <cell r="U67">
-            <v>0.92</v>
-          </cell>
-          <cell r="V67">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="W67">
-            <v>0.77100000000000002</v>
-          </cell>
-          <cell r="X67">
-            <v>0.77100000000000002</v>
-          </cell>
-          <cell r="Y67">
-            <v>0.82699999999999996</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>0.69733796296296291</v>
-          </cell>
-          <cell r="B68">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="C68">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="D68">
-            <v>0.92700000000000005</v>
-          </cell>
-          <cell r="E68">
-            <v>0.63400000000000001</v>
-          </cell>
-          <cell r="F68">
-            <v>0.58499999999999996</v>
-          </cell>
-          <cell r="G68">
-            <v>0.65100000000000002</v>
-          </cell>
-          <cell r="H68">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="I68">
-            <v>0.88800000000000001</v>
-          </cell>
-          <cell r="J68">
-            <v>0.91500000000000004</v>
-          </cell>
-          <cell r="K68">
-            <v>0.74399999999999999</v>
-          </cell>
-          <cell r="L68">
-            <v>0.746</v>
-          </cell>
-          <cell r="M68">
-            <v>0.69399999999999995</v>
-          </cell>
-          <cell r="N68">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="O68">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="P68">
-            <v>0.90500000000000003</v>
-          </cell>
-          <cell r="Q68">
-            <v>0.73599999999999999</v>
-          </cell>
-          <cell r="R68">
-            <v>0.77</v>
-          </cell>
-          <cell r="S68">
-            <v>0.63700000000000001</v>
-          </cell>
-          <cell r="T68">
-            <v>0.96199999999999997</v>
-          </cell>
-          <cell r="U68">
-            <v>0.91900000000000004</v>
-          </cell>
-          <cell r="V68">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="W68">
-            <v>0.77300000000000002</v>
-          </cell>
-          <cell r="X68">
-            <v>0.77800000000000002</v>
-          </cell>
-          <cell r="Y68">
-            <v>0.83199999999999996</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>0.70775462962962965</v>
-          </cell>
-          <cell r="B69">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="C69">
-            <v>0.90700000000000003</v>
-          </cell>
-          <cell r="D69">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="E69">
-            <v>0.64700000000000002</v>
-          </cell>
-          <cell r="F69">
-            <v>0.60399999999999998</v>
-          </cell>
-          <cell r="G69">
-            <v>0.66700000000000004</v>
-          </cell>
-          <cell r="H69">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="I69">
-            <v>0.88700000000000001</v>
-          </cell>
-          <cell r="J69">
-            <v>0.91300000000000003</v>
-          </cell>
-          <cell r="K69">
-            <v>0.748</v>
-          </cell>
-          <cell r="L69">
-            <v>0.755</v>
-          </cell>
-          <cell r="M69">
-            <v>0.71199999999999997</v>
-          </cell>
-          <cell r="N69">
-            <v>0.93500000000000005</v>
-          </cell>
-          <cell r="O69">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="P69">
-            <v>0.90400000000000003</v>
-          </cell>
-          <cell r="Q69">
-            <v>0.74099999999999999</v>
-          </cell>
-          <cell r="R69">
-            <v>0.77800000000000002</v>
-          </cell>
-          <cell r="S69">
-            <v>0.64800000000000002</v>
-          </cell>
-          <cell r="T69">
-            <v>0.96099999999999997</v>
-          </cell>
-          <cell r="U69">
-            <v>0.91800000000000004</v>
-          </cell>
-          <cell r="V69">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="W69">
-            <v>0.77400000000000002</v>
-          </cell>
-          <cell r="X69">
-            <v>0.78600000000000003</v>
-          </cell>
-          <cell r="Y69">
-            <v>0.83599999999999997</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>0.71817129629629628</v>
-          </cell>
-          <cell r="B70">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="C70">
-            <v>0.90600000000000003</v>
-          </cell>
-          <cell r="D70">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="E70">
-            <v>0.66</v>
-          </cell>
-          <cell r="F70">
-            <v>0.61599999999999999</v>
-          </cell>
-          <cell r="G70">
-            <v>0.68500000000000005</v>
-          </cell>
-          <cell r="H70">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="I70">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="J70">
-            <v>0.91100000000000003</v>
-          </cell>
-          <cell r="K70">
-            <v>0.75</v>
-          </cell>
-          <cell r="L70">
-            <v>0.76300000000000001</v>
-          </cell>
-          <cell r="M70">
-            <v>0.72699999999999998</v>
-          </cell>
-          <cell r="N70">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="O70">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="P70">
-            <v>0.90100000000000002</v>
-          </cell>
-          <cell r="Q70">
-            <v>0.74299999999999999</v>
-          </cell>
-          <cell r="R70">
-            <v>0.78300000000000003</v>
-          </cell>
-          <cell r="S70">
-            <v>0.66200000000000003</v>
-          </cell>
-          <cell r="T70">
-            <v>0.96</v>
-          </cell>
-          <cell r="U70">
-            <v>0.91700000000000004</v>
-          </cell>
-          <cell r="V70">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="W70">
-            <v>0.77600000000000002</v>
-          </cell>
-          <cell r="X70">
-            <v>0.79200000000000004</v>
-          </cell>
-          <cell r="Y70">
-            <v>0.83899999999999997</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>0.72858796296296291</v>
-          </cell>
-          <cell r="B71">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="C71">
-            <v>0.90400000000000003</v>
-          </cell>
-          <cell r="D71">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="E71">
-            <v>0.67200000000000004</v>
-          </cell>
-          <cell r="F71">
-            <v>0.627</v>
-          </cell>
-          <cell r="G71">
-            <v>0.70299999999999996</v>
-          </cell>
-          <cell r="H71">
-            <v>0.93</v>
-          </cell>
-          <cell r="I71">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="J71">
-            <v>0.91</v>
-          </cell>
-          <cell r="K71">
-            <v>0.753</v>
-          </cell>
-          <cell r="L71">
-            <v>0.77100000000000002</v>
-          </cell>
-          <cell r="M71">
-            <v>0.74199999999999999</v>
-          </cell>
-          <cell r="N71">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="O71">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="P71">
-            <v>0.9</v>
-          </cell>
-          <cell r="Q71">
-            <v>0.745</v>
-          </cell>
-          <cell r="R71">
-            <v>0.78400000000000003</v>
-          </cell>
-          <cell r="S71">
-            <v>0.67800000000000005</v>
-          </cell>
-          <cell r="T71">
-            <v>0.96</v>
-          </cell>
-          <cell r="U71">
-            <v>0.91600000000000004</v>
-          </cell>
-          <cell r="V71">
-            <v>0.92900000000000005</v>
-          </cell>
-          <cell r="W71">
-            <v>0.77800000000000002</v>
-          </cell>
-          <cell r="X71">
-            <v>0.79500000000000004</v>
-          </cell>
-          <cell r="Y71">
-            <v>0.84199999999999997</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>0.73900462962962965</v>
-          </cell>
-          <cell r="B72">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="C72">
-            <v>0.90500000000000003</v>
-          </cell>
-          <cell r="D72">
-            <v>0.92300000000000004</v>
-          </cell>
-          <cell r="E72">
-            <v>0.68600000000000005</v>
-          </cell>
-          <cell r="F72">
-            <v>0.64100000000000001</v>
-          </cell>
-          <cell r="G72">
-            <v>0.72099999999999997</v>
-          </cell>
-          <cell r="H72">
-            <v>0.93</v>
-          </cell>
-          <cell r="I72">
-            <v>0.88300000000000001</v>
-          </cell>
-          <cell r="J72">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="K72">
-            <v>0.755</v>
-          </cell>
-          <cell r="L72">
-            <v>0.77500000000000002</v>
-          </cell>
-          <cell r="M72">
-            <v>0.753</v>
-          </cell>
-          <cell r="N72">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="O72">
-            <v>0.92900000000000005</v>
-          </cell>
-          <cell r="P72">
-            <v>0.89700000000000002</v>
-          </cell>
-          <cell r="Q72">
-            <v>0.747</v>
-          </cell>
-          <cell r="R72">
-            <v>0.78600000000000003</v>
-          </cell>
-          <cell r="S72">
-            <v>0.69299999999999995</v>
-          </cell>
-          <cell r="T72">
-            <v>0.96</v>
-          </cell>
-          <cell r="U72">
-            <v>0.91500000000000004</v>
-          </cell>
-          <cell r="V72">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="W72">
-            <v>0.78</v>
-          </cell>
-          <cell r="X72">
-            <v>0.79700000000000004</v>
-          </cell>
-          <cell r="Y72">
-            <v>0.84499999999999997</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>0.74942129629629628</v>
-          </cell>
-          <cell r="B73">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="C73">
-            <v>0.90500000000000003</v>
-          </cell>
-          <cell r="D73">
-            <v>0.92200000000000004</v>
-          </cell>
-          <cell r="E73">
-            <v>0.69699999999999995</v>
-          </cell>
-          <cell r="F73">
-            <v>0.65700000000000003</v>
-          </cell>
-          <cell r="G73">
-            <v>0.73399999999999999</v>
-          </cell>
-          <cell r="H73">
-            <v>0.92900000000000005</v>
-          </cell>
-          <cell r="I73">
-            <v>0.88300000000000001</v>
-          </cell>
-          <cell r="J73">
-            <v>0.90600000000000003</v>
-          </cell>
-          <cell r="K73">
-            <v>0.75600000000000001</v>
-          </cell>
-          <cell r="L73">
-            <v>0.77800000000000002</v>
-          </cell>
-          <cell r="M73">
-            <v>0.76300000000000001</v>
-          </cell>
-          <cell r="N73">
-            <v>0.93400000000000005</v>
-          </cell>
-          <cell r="O73">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="P73">
-            <v>0.89600000000000002</v>
-          </cell>
-          <cell r="Q73">
-            <v>0.748</v>
-          </cell>
-          <cell r="R73">
-            <v>0.78800000000000003</v>
-          </cell>
-          <cell r="S73">
-            <v>0.70799999999999996</v>
-          </cell>
-          <cell r="T73">
-            <v>0.95899999999999996</v>
-          </cell>
-          <cell r="U73">
-            <v>0.91400000000000003</v>
-          </cell>
-          <cell r="V73">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="W73">
-            <v>0.78</v>
-          </cell>
-          <cell r="X73">
-            <v>0.79800000000000004</v>
-          </cell>
-          <cell r="Y73">
-            <v>0.84599999999999997</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>0.75983796296296291</v>
-          </cell>
-          <cell r="B74">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="C74">
-            <v>0.90400000000000003</v>
-          </cell>
-          <cell r="D74">
-            <v>0.92</v>
-          </cell>
-          <cell r="E74">
-            <v>0.71</v>
-          </cell>
-          <cell r="F74">
-            <v>0.67100000000000004</v>
-          </cell>
-          <cell r="G74">
-            <v>0.746</v>
-          </cell>
-          <cell r="H74">
-            <v>0.92800000000000005</v>
-          </cell>
-          <cell r="I74">
-            <v>0.88200000000000001</v>
-          </cell>
-          <cell r="J74">
-            <v>0.90500000000000003</v>
-          </cell>
-          <cell r="K74">
-            <v>0.75700000000000001</v>
-          </cell>
-          <cell r="L74">
-            <v>0.77900000000000003</v>
-          </cell>
-          <cell r="M74">
-            <v>0.77200000000000002</v>
-          </cell>
-          <cell r="N74">
-            <v>0.93300000000000005</v>
-          </cell>
-          <cell r="O74">
-            <v>0.92600000000000005</v>
-          </cell>
-          <cell r="P74">
-            <v>0.89400000000000002</v>
-          </cell>
-          <cell r="Q74">
-            <v>0.748</v>
-          </cell>
-          <cell r="R74">
-            <v>0.78800000000000003</v>
-          </cell>
-          <cell r="S74">
-            <v>0.72099999999999997</v>
-          </cell>
-          <cell r="T74">
-            <v>0.95799999999999996</v>
-          </cell>
-          <cell r="U74">
-            <v>0.91300000000000003</v>
-          </cell>
-          <cell r="V74">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="W74">
-            <v>0.78100000000000003</v>
-          </cell>
-          <cell r="X74">
-            <v>0.79900000000000004</v>
-          </cell>
-          <cell r="Y74">
-            <v>0.84799999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6243,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12618,12 +6925,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>